--- a/medicine/Enfance/Collection_Défi/Collection_Défi.xlsx
+++ b/medicine/Enfance/Collection_Défi/Collection_Défi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collection_D%C3%A9fi</t>
+          <t>Collection_Défi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1998 par les éditions Pierre Téqui, la Collection Défi publie des romans de jeunesse pour la plupart inédits. 
 Elle s'inscrit dans la lignée des Signe de Piste, romans destinés à de jeunes lecteurs considérés, en dépit de leur âge, comme aptes à avoir un jugement personnel.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Collection_D%C3%A9fi</t>
+          <t>Collection_Défi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Présentation de la collection
  Portail de la littérature   Portail de la littérature d’enfance et de jeunesse                    </t>
